--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.9679394797004</v>
+        <v>209.3841491201422</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.6623656029531</v>
+        <v>286.4886302027639</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.075641587592</v>
+        <v>259.1465574256143</v>
       </c>
       <c r="AD2" t="n">
-        <v>172967.9394797004</v>
+        <v>209384.1491201422</v>
       </c>
       <c r="AE2" t="n">
-        <v>236662.3656029531</v>
+        <v>286488.6302027639</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767036619511605e-06</v>
+        <v>5.119742196209833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.491898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>214075.641587592</v>
+        <v>259146.5574256143</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.34305045925</v>
+        <v>140.6490003405854</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.1856943314161</v>
+        <v>192.442167261872</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.9932350829947</v>
+        <v>174.0757569127314</v>
       </c>
       <c r="AD3" t="n">
-        <v>116343.0504592499</v>
+        <v>140649.0003405854</v>
       </c>
       <c r="AE3" t="n">
-        <v>159185.6943314161</v>
+        <v>192442.167261872</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.747502515266955e-06</v>
+        <v>6.933860803476168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>143993.2350829947</v>
+        <v>174075.7569127314</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.45087764027922</v>
+        <v>121.8420788676352</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.3365900166715</v>
+        <v>166.7097075997766</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.6111330045953</v>
+        <v>150.7991670850442</v>
       </c>
       <c r="AD4" t="n">
-        <v>97450.87764027921</v>
+        <v>121842.0788676352</v>
       </c>
       <c r="AE4" t="n">
-        <v>133336.5900166715</v>
+        <v>166709.7075997766</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.93021400765181e-06</v>
+        <v>7.271924900893254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>120611.1330045953</v>
+        <v>150799.1670850442</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.4020578045066</v>
+        <v>164.6078533480862</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.0536043039306</v>
+        <v>225.2237269367142</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.1558568055073</v>
+        <v>203.7286905414251</v>
       </c>
       <c r="AD2" t="n">
-        <v>129402.0578045066</v>
+        <v>164607.8533480862</v>
       </c>
       <c r="AE2" t="n">
-        <v>177053.6043039306</v>
+        <v>225223.7269367142</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.291664065114223e-06</v>
+        <v>6.27441971851835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.777199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>160155.8568055073</v>
+        <v>203728.6905414251</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.63416374366075</v>
+        <v>115.1615880090949</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.377905448016</v>
+        <v>157.5691652846701</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.4120141210858</v>
+        <v>142.5309852996569</v>
       </c>
       <c r="AD3" t="n">
-        <v>91634.16374366076</v>
+        <v>115161.5880090949</v>
       </c>
       <c r="AE3" t="n">
-        <v>125377.905448016</v>
+        <v>157569.1652846701</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.058416915576484e-06</v>
+        <v>7.735968986305985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>113412.0141210858</v>
+        <v>142530.9852996569</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.89061911298916</v>
+        <v>111.7322527493501</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.3605548814576</v>
+        <v>152.8769974906955</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.491758064739</v>
+        <v>138.2866314144389</v>
       </c>
       <c r="AD2" t="n">
-        <v>90890.61911298915</v>
+        <v>111732.2527493501</v>
       </c>
       <c r="AE2" t="n">
-        <v>124360.5548814576</v>
+        <v>152876.9974906955</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.153279763477367e-06</v>
+        <v>8.845398970705849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.224537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>112491.758064739</v>
+        <v>138286.6314144389</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.8064635539113</v>
+        <v>116.6648043002911</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.7183860003889</v>
+        <v>159.625932131506</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.3382453014444</v>
+        <v>144.3914572053219</v>
       </c>
       <c r="AD2" t="n">
-        <v>94806.46355391129</v>
+        <v>116664.8043002911</v>
       </c>
       <c r="AE2" t="n">
-        <v>129718.3860003889</v>
+        <v>159625.932131506</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.182563841729981e-06</v>
+        <v>8.492050643461349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.013310185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>117338.2453014444</v>
+        <v>144391.4572053219</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.18890365264532</v>
+        <v>117.0472443990252</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2416574155429</v>
+        <v>160.1492035466601</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8115764271523</v>
+        <v>144.8647883310298</v>
       </c>
       <c r="AD3" t="n">
-        <v>95188.90365264533</v>
+        <v>117047.2443990252</v>
       </c>
       <c r="AE3" t="n">
-        <v>130241.6574155429</v>
+        <v>160149.2035466601</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.17838806352783e-06</v>
+        <v>8.483572370012243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>117811.5764271523</v>
+        <v>144864.7883310298</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.92456649367359</v>
+        <v>109.1028839422319</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.6705149515914</v>
+        <v>149.2793790892334</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.0584517702836</v>
+        <v>135.032364663922</v>
       </c>
       <c r="AD2" t="n">
-        <v>88924.5664936736</v>
+        <v>109102.8839422319</v>
       </c>
       <c r="AE2" t="n">
-        <v>121670.5149515914</v>
+        <v>149279.3790892334</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.02043784977345e-06</v>
+        <v>8.952729803277657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>110058.4517702836</v>
+        <v>135032.364663922</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.0188931643511</v>
+        <v>172.5652432925545</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.4752944743248</v>
+        <v>236.1113789139984</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5829154929764</v>
+        <v>213.5772402949163</v>
       </c>
       <c r="AD2" t="n">
-        <v>137018.8931643511</v>
+        <v>172565.2432925545</v>
       </c>
       <c r="AE2" t="n">
-        <v>187475.2944743248</v>
+        <v>236111.3789139984</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.14434391085184e-06</v>
+        <v>5.945211228294075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>169582.9154929764</v>
+        <v>213577.2402949163</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.10689969507584</v>
+        <v>116.8613603502592</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.3929677492657</v>
+        <v>159.8948687905132</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.2347617044626</v>
+        <v>144.6347269270484</v>
       </c>
       <c r="AD3" t="n">
-        <v>93106.89969507584</v>
+        <v>116861.3603502592</v>
       </c>
       <c r="AE3" t="n">
-        <v>127392.9677492657</v>
+        <v>159894.8687905132</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.027129232124559e-06</v>
+        <v>7.614349640950063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.868634259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>115234.7617044626</v>
+        <v>144634.7269270484</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.44747256422131</v>
+        <v>117.2019332194047</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.8589545738449</v>
+        <v>160.3608556150924</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.6562754005207</v>
+        <v>145.0562406231065</v>
       </c>
       <c r="AD4" t="n">
-        <v>93447.47256422132</v>
+        <v>117201.9332194047</v>
       </c>
       <c r="AE4" t="n">
-        <v>127858.9545738449</v>
+        <v>160360.8556150924</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.021691240086955e-06</v>
+        <v>7.604067683175102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>115656.2754005207</v>
+        <v>145056.2406231065</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.70098220264217</v>
+        <v>118.0144083024664</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.3645970607596</v>
+        <v>161.4725198676079</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.7817302535942</v>
+        <v>146.0618091995929</v>
       </c>
       <c r="AD2" t="n">
-        <v>88700.98220264216</v>
+        <v>118014.4083024664</v>
       </c>
       <c r="AE2" t="n">
-        <v>121364.5970607596</v>
+        <v>161472.5198676079</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.86372573051009e-06</v>
+        <v>8.857849133871625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.826388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>109781.7302535942</v>
+        <v>146061.8091995929</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8781736949081</v>
+        <v>131.5835036822012</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.9719206153286</v>
+        <v>180.0383547923909</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7542495952459</v>
+        <v>162.8557468964734</v>
       </c>
       <c r="AD2" t="n">
-        <v>108878.1736949081</v>
+        <v>131583.5036822012</v>
       </c>
       <c r="AE2" t="n">
-        <v>148971.9206153286</v>
+        <v>180038.3547923909</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.784835174586826e-06</v>
+        <v>7.418224636017179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.279513888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>134754.2495952459</v>
+        <v>162855.7468964735</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.35521053254398</v>
+        <v>110.1457918658576</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.5232528904763</v>
+        <v>150.7063317201877</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.1161213865794</v>
+        <v>136.3231309385191</v>
       </c>
       <c r="AD3" t="n">
-        <v>87355.21053254398</v>
+        <v>110145.7918658577</v>
       </c>
       <c r="AE3" t="n">
-        <v>119523.2528904763</v>
+        <v>150706.3317201877</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.152039474598504e-06</v>
+        <v>8.137939989300812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.900462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>108116.1213865794</v>
+        <v>136323.1309385191</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.7678897676312</v>
+        <v>157.6201807110729</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.9764429170448</v>
+        <v>215.6628849603975</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.9450069615069</v>
+        <v>195.0803219045991</v>
       </c>
       <c r="AD2" t="n">
-        <v>122767.8897676312</v>
+        <v>157620.1807110729</v>
       </c>
       <c r="AE2" t="n">
-        <v>167976.4429170448</v>
+        <v>215662.8849603976</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.434704937849036e-06</v>
+        <v>6.603917767145213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.620949074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>151945.0069615069</v>
+        <v>195080.3219045991</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.19701899731217</v>
+        <v>113.488773529321</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.4115406037113</v>
+        <v>155.2803467140783</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.6333163777106</v>
+        <v>140.4606083610646</v>
       </c>
       <c r="AD3" t="n">
-        <v>90197.01899731217</v>
+        <v>113488.773529321</v>
       </c>
       <c r="AE3" t="n">
-        <v>123411.5406037113</v>
+        <v>155280.3467140783</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.092193844754172e-06</v>
+        <v>7.868073714331427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.877314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>111633.3163777106</v>
+        <v>140460.6083610646</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.4687544254531</v>
+        <v>200.5767285429691</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.0334056541564</v>
+        <v>274.4379288131087</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.5565332549569</v>
+        <v>248.2459580633183</v>
       </c>
       <c r="AD2" t="n">
-        <v>164468.7544254531</v>
+        <v>200576.7285429691</v>
       </c>
       <c r="AE2" t="n">
-        <v>225033.4056541564</v>
+        <v>274437.9288131087</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.887939142628371e-06</v>
+        <v>5.380011582859275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.303819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>203556.5332549569</v>
+        <v>248245.9580633183</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.23939900564187</v>
+        <v>123.4251098843806</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7837238527533</v>
+        <v>168.8756804752861</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.8247158219362</v>
+        <v>152.7584225492778</v>
       </c>
       <c r="AD3" t="n">
-        <v>99239.39900564187</v>
+        <v>123425.1098843806</v>
       </c>
       <c r="AE3" t="n">
-        <v>135783.7238527533</v>
+        <v>168875.6804752861</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.87094909514182e-06</v>
+        <v>7.211284566601945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>122824.7158219362</v>
+        <v>152758.4225492778</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.55653257337089</v>
+        <v>119.7422434521096</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.7446635235227</v>
+        <v>163.8366201460555</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.2665763381602</v>
+        <v>148.2002830655018</v>
       </c>
       <c r="AD4" t="n">
-        <v>95556.53257337089</v>
+        <v>119742.2434521096</v>
       </c>
       <c r="AE4" t="n">
-        <v>130744.6635235227</v>
+        <v>163836.6201460555</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.983813396868282e-06</v>
+        <v>7.421542200364635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>118266.5763381602</v>
+        <v>148200.2830655018</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.25227402711616</v>
+        <v>119.4079896593134</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.0648517913689</v>
+        <v>163.3792793605152</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.3653290941285</v>
+        <v>147.7865902426516</v>
       </c>
       <c r="AD2" t="n">
-        <v>97252.27402711616</v>
+        <v>119407.9896593134</v>
       </c>
       <c r="AE2" t="n">
-        <v>133064.8517913689</v>
+        <v>163379.2793605152</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.130618270533255e-06</v>
+        <v>8.279813397651368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120365.3290941285</v>
+        <v>147786.5902426516</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.23201815130911</v>
+        <v>118.4227869094925</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.6182074058351</v>
+        <v>162.0312814941333</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.4883293657345</v>
+        <v>146.5672434007098</v>
       </c>
       <c r="AD3" t="n">
-        <v>85232.01815130911</v>
+        <v>118422.7869094925</v>
       </c>
       <c r="AE3" t="n">
-        <v>116618.2074058351</v>
+        <v>162031.2814941333</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171681623924254e-06</v>
+        <v>8.362124780909591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.972800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>105488.3293657345</v>
+        <v>146567.2434007098</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.31665607688878</v>
+        <v>113.521902744612</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.3117215677748</v>
+        <v>155.3256755679972</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2567081409943</v>
+        <v>140.5016110927849</v>
       </c>
       <c r="AD2" t="n">
-        <v>92316.65607688877</v>
+        <v>113521.902744612</v>
       </c>
       <c r="AE2" t="n">
-        <v>126311.7215677748</v>
+        <v>155325.6755679972</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.167372202780214e-06</v>
+        <v>8.718403266992868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.143518518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>114256.7081409943</v>
+        <v>140501.6110927849</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.96331600919555</v>
+        <v>110.4088350689627</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.0917778651221</v>
+        <v>151.066239035323</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.3440713461024</v>
+        <v>136.648689204631</v>
       </c>
       <c r="AD2" t="n">
-        <v>89963.31600919555</v>
+        <v>110408.8350689627</v>
       </c>
       <c r="AE2" t="n">
-        <v>123091.7778651221</v>
+        <v>151066.239035323</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.096317205647822e-06</v>
+        <v>8.9048027926613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.360532407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>111344.0713461024</v>
+        <v>136648.6892046311</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.0138574225674</v>
+        <v>127.3803972450965</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.4751279085985</v>
+        <v>174.287479137178</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.5455718415744</v>
+        <v>157.6537267423876</v>
       </c>
       <c r="AD2" t="n">
-        <v>99013.85742256739</v>
+        <v>127380.3972450965</v>
       </c>
       <c r="AE2" t="n">
-        <v>135475.1279085985</v>
+        <v>174287.479137178</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.58857561724449e-06</v>
+        <v>8.535523866257452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.341435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>122545.5718415744</v>
+        <v>157653.7267423876</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.8286250029591</v>
+        <v>138.7898862592454</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.48183472727</v>
+        <v>189.8984453574593</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.356550851595</v>
+        <v>171.7748042567389</v>
       </c>
       <c r="AD2" t="n">
-        <v>115828.6250029591</v>
+        <v>138789.8862592454</v>
       </c>
       <c r="AE2" t="n">
-        <v>158481.83472727</v>
+        <v>189898.4453574592</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.59855764443387e-06</v>
+        <v>6.983282498197079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>143356.5508515949</v>
+        <v>171774.8042567389</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.83620833942641</v>
+        <v>111.8827209417332</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.5496194268637</v>
+        <v>153.0828747097022</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.949094344758</v>
+        <v>138.4728600006141</v>
       </c>
       <c r="AD3" t="n">
-        <v>88836.2083394264</v>
+        <v>111882.7209417332</v>
       </c>
       <c r="AE3" t="n">
-        <v>121549.6194268637</v>
+        <v>153082.8747097022</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120748441091681e-06</v>
+        <v>7.996634571814833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>109949.094344758</v>
+        <v>138472.8600006141</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.515346966762</v>
+        <v>180.4890978835617</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.1512026896075</v>
+        <v>246.9531463412017</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.7129124680733</v>
+        <v>223.3842846553869</v>
       </c>
       <c r="AD2" t="n">
-        <v>156515.346966762</v>
+        <v>180489.0978835617</v>
       </c>
       <c r="AE2" t="n">
-        <v>214151.2026896075</v>
+        <v>246953.1463412017</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.013112856248502e-06</v>
+        <v>5.653781549300751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.127314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>193712.9124680733</v>
+        <v>223384.2846553869</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.29649777042235</v>
+        <v>119.270159178671</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.3888724342028</v>
+        <v>163.1906936162487</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.9447414510489</v>
+        <v>147.616002857136</v>
       </c>
       <c r="AD3" t="n">
-        <v>95296.49777042234</v>
+        <v>119270.1591786709</v>
       </c>
       <c r="AE3" t="n">
-        <v>130388.8724342028</v>
+        <v>163190.6936162487</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.968749184646619e-06</v>
+        <v>7.44693012989052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.891782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>117944.7414510489</v>
+        <v>147616.002857136</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.66935973381396</v>
+        <v>118.6430211420626</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.5307945051381</v>
+        <v>162.3326156871841</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.168557275214</v>
+        <v>146.8398186813011</v>
       </c>
       <c r="AD4" t="n">
-        <v>94669.35973381397</v>
+        <v>118643.0211420626</v>
       </c>
       <c r="AE4" t="n">
-        <v>129530.7945051382</v>
+        <v>162332.6156871841</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.996826306287541e-06</v>
+        <v>7.499613822757091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>117168.557275214</v>
+        <v>146839.8186813011</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.4488996448369</v>
+        <v>138.8442271885162</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.4893012724441</v>
+        <v>189.97279701424</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.9359363791222</v>
+        <v>171.8420598957497</v>
       </c>
       <c r="AD2" t="n">
-        <v>111448.8996448369</v>
+        <v>138844.2271885161</v>
       </c>
       <c r="AE2" t="n">
-        <v>152489.3012724441</v>
+        <v>189972.79701424</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.062605680155415e-06</v>
+        <v>7.65934438635795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>137935.9363791222</v>
+        <v>171842.0598957497</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.26385191845986</v>
+        <v>114.8064945211248</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.607716705543</v>
+        <v>157.0833107088106</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.429015321755</v>
+        <v>142.0915000026161</v>
       </c>
       <c r="AD2" t="n">
-        <v>93263.85191845987</v>
+        <v>114806.4945211248</v>
       </c>
       <c r="AE2" t="n">
-        <v>127607.716705543</v>
+        <v>157083.3107088106</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.194752392988427e-06</v>
+        <v>8.638184213786855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>115429.015321755</v>
+        <v>142091.5000026161</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9664286115325</v>
+        <v>124.4037919230588</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.5149660675863</v>
+        <v>170.2147564170091</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1998535166181</v>
+        <v>153.9696989625282</v>
       </c>
       <c r="AD2" t="n">
-        <v>101966.4286115325</v>
+        <v>124403.7919230588</v>
       </c>
       <c r="AE2" t="n">
-        <v>139514.9660675863</v>
+        <v>170214.7564170091</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99099010268286e-06</v>
+        <v>7.906886181717795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>126199.8535166181</v>
+        <v>153969.6989625281</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.72929313436137</v>
+        <v>108.2519077919082</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.2986009758708</v>
+        <v>148.1150359779429</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.1037871283846</v>
+        <v>133.9791448250068</v>
       </c>
       <c r="AD3" t="n">
-        <v>85729.29313436137</v>
+        <v>108251.9077919082</v>
       </c>
       <c r="AE3" t="n">
-        <v>117298.6009758708</v>
+        <v>148115.0359779428</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.189939646178014e-06</v>
+        <v>8.301041856336841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.909143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>106103.7871283846</v>
+        <v>133979.1448250068</v>
       </c>
     </row>
   </sheetData>
